--- a/src/test/resources/TestDriver/TestIFRS9/IFRS9_Model_withoutCustomTable.xlsx
+++ b/src/test/resources/TestDriver/TestIFRS9/IFRS9_Model_withoutCustomTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arahmed\OneDrive - SS&amp;C Technologies, Inc\Desktop\Pers\IFRS9_Collateral\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arahmed\OneDrive - SS&amp;C Technologies, Inc\Desktop\Pers\IFRS9_Collateral\TestIFRS9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D76AD81B-8F7F-4A7E-A5EE-1BA61AE3FF8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92B64042-8271-465D-B5E9-EDDB6F829521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="6" xr2:uid="{5E1CAB26-E67F-4F6B-9DAC-E456956C15F1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="2" xr2:uid="{5E1CAB26-E67F-4F6B-9DAC-E456956C15F1}"/>
   </bookViews>
   <sheets>
     <sheet name="xxJOB" sheetId="8" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="148">
   <si>
     <t>Name</t>
   </si>
@@ -743,6 +743,8 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -764,8 +766,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1212,10 +1212,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1225,73 +1225,58 @@
     <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="13" t="s">
-        <v>48</v>
+    <row r="1" spans="1:3">
+      <c r="A1" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="3">
-        <v>45930</v>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="18">
+      <c r="C2" s="18">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="3">
-        <v>45930</v>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="18">
+      <c r="C3" s="18">
         <v>0.03</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="3">
-        <v>45930</v>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="18">
+      <c r="C4" s="18">
         <v>0.1</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="3">
-        <v>45930</v>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="18">
+      <c r="C5" s="18">
         <v>1</v>
       </c>
     </row>
@@ -1308,7 +1293,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1319,25 +1304,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="13" t="s">
-        <v>47</v>
+      <c r="A1" s="14" t="s">
+        <v>68</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="C1" s="14" t="s">
         <v>69</v>
       </c>
       <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="3">
-        <v>45930</v>
+      <c r="A2" s="16">
+        <v>0.3</v>
       </c>
       <c r="B2" s="16">
-        <v>0.3</v>
-      </c>
-      <c r="C2" s="16">
         <v>0.05</v>
       </c>
     </row>
@@ -1526,7 +1505,7 @@
         <v>3</v>
       </c>
       <c r="C10" s="5">
-        <f>VLOOKUP(B10,xxRL!$C$2:$D$5,2,FALSE)</f>
+        <f>VLOOKUP(B10,xxRL!$B$2:$C$5,2,FALSE)</f>
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
@@ -1538,7 +1517,7 @@
         <v>5</v>
       </c>
       <c r="C11" s="5">
-        <f>VLOOKUP(B11,xxRL!$C$2:$D$5,2,FALSE)</f>
+        <f>VLOOKUP(B11,xxRL!$B$2:$C$5,2,FALSE)</f>
         <v>0.03</v>
       </c>
     </row>
@@ -1550,7 +1529,7 @@
         <v>7</v>
       </c>
       <c r="C12" s="5">
-        <f>VLOOKUP(B12,xxRL!$C$2:$D$5,2,FALSE)</f>
+        <f>VLOOKUP(B12,xxRL!$B$2:$C$5,2,FALSE)</f>
         <v>0.1</v>
       </c>
     </row>
@@ -1562,7 +1541,7 @@
         <v>9</v>
       </c>
       <c r="C13" s="5">
-        <f>VLOOKUP(B13,xxRL!$C$2:$D$5,2,FALSE)</f>
+        <f>VLOOKUP(B13,xxRL!$B$2:$C$5,2,FALSE)</f>
         <v>1</v>
       </c>
     </row>
@@ -1581,24 +1560,24 @@
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="43">
+        <f>xxCOL!A2</f>
+        <v>0.3</v>
+      </c>
+      <c r="B17" s="43">
         <f>xxCOL!B2</f>
-        <v>0.3</v>
-      </c>
-      <c r="B17" s="43">
-        <f>xxCOL!C2</f>
         <v>0.05</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="15.75" thickBot="1"/>
     <row r="19" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A19" s="44" t="s">
+      <c r="A19" s="46" t="s">
         <v>126</v>
       </c>
-      <c r="B19" s="45"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="46"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="48"/>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="19" t="s">
@@ -1648,21 +1627,21 @@
     </row>
     <row r="22" spans="1:13" ht="15.75" thickBot="1"/>
     <row r="23" spans="1:13" ht="19.5" thickBot="1">
-      <c r="A23" s="47" t="s">
+      <c r="A23" s="49" t="s">
         <v>132</v>
       </c>
-      <c r="B23" s="48"/>
-      <c r="C23" s="48"/>
-      <c r="D23" s="48"/>
-      <c r="E23" s="48"/>
-      <c r="F23" s="48"/>
-      <c r="G23" s="48"/>
-      <c r="H23" s="48"/>
-      <c r="I23" s="48"/>
-      <c r="J23" s="48"/>
-      <c r="K23" s="48"/>
-      <c r="L23" s="48"/>
-      <c r="M23" s="49"/>
+      <c r="B23" s="50"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="50"/>
+      <c r="H23" s="50"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="50"/>
+      <c r="K23" s="50"/>
+      <c r="L23" s="50"/>
+      <c r="M23" s="51"/>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="22" t="s">
@@ -1674,11 +1653,11 @@
       <c r="C25" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="E25" s="50" t="s">
+      <c r="E25" s="52" t="s">
         <v>145</v>
       </c>
-      <c r="F25" s="50"/>
-      <c r="G25" s="50"/>
+      <c r="F25" s="52"/>
+      <c r="G25" s="52"/>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="37" t="s">
@@ -4855,7 +4834,7 @@
   </sheetPr>
   <dimension ref="A1:X21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
@@ -4958,10 +4937,10 @@
       <c r="E2" s="20">
         <v>46023</v>
       </c>
-      <c r="F2" s="51" t="s">
+      <c r="F2" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="51" t="s">
+      <c r="G2" s="44" t="s">
         <v>3</v>
       </c>
       <c r="H2" s="9">
@@ -4973,7 +4952,7 @@
       <c r="J2" s="9">
         <v>200000</v>
       </c>
-      <c r="K2" s="51">
+      <c r="K2" s="44">
         <v>0</v>
       </c>
       <c r="L2" s="9">
@@ -5032,10 +5011,10 @@
       <c r="E3" s="20">
         <v>46447</v>
       </c>
-      <c r="F3" s="51" t="s">
+      <c r="F3" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="51" t="s">
+      <c r="G3" s="44" t="s">
         <v>5</v>
       </c>
       <c r="H3" s="9">
@@ -5047,7 +5026,7 @@
       <c r="J3" s="9">
         <v>300000</v>
       </c>
-      <c r="K3" s="51">
+      <c r="K3" s="44">
         <v>25</v>
       </c>
       <c r="L3" s="9">
@@ -5106,10 +5085,10 @@
       <c r="E4" s="20">
         <v>45809</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="51" t="s">
+      <c r="G4" s="44" t="s">
         <v>5</v>
       </c>
       <c r="H4" s="9">
@@ -5121,7 +5100,7 @@
       <c r="J4" s="9">
         <v>80000</v>
       </c>
-      <c r="K4" s="51">
+      <c r="K4" s="44">
         <v>40</v>
       </c>
       <c r="L4" s="9">
@@ -5180,10 +5159,10 @@
       <c r="E5" s="20">
         <v>45292</v>
       </c>
-      <c r="F5" s="51" t="s">
+      <c r="F5" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="51" t="s">
+      <c r="G5" s="44" t="s">
         <v>7</v>
       </c>
       <c r="H5" s="9">
@@ -5195,7 +5174,7 @@
       <c r="J5" s="9">
         <v>400000</v>
       </c>
-      <c r="K5" s="51">
+      <c r="K5" s="44">
         <v>65</v>
       </c>
       <c r="L5" s="9">
@@ -5254,10 +5233,10 @@
       <c r="E6" s="20">
         <v>46874</v>
       </c>
-      <c r="F6" s="51" t="s">
+      <c r="F6" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="51" t="s">
+      <c r="G6" s="44" t="s">
         <v>3</v>
       </c>
       <c r="H6" s="9">
@@ -5269,7 +5248,7 @@
       <c r="J6" s="9">
         <v>70000</v>
       </c>
-      <c r="K6" s="51">
+      <c r="K6" s="44">
         <v>0</v>
       </c>
       <c r="L6" s="9">
@@ -5328,10 +5307,10 @@
       <c r="E7" s="20">
         <v>45901</v>
       </c>
-      <c r="F7" s="51" t="s">
+      <c r="F7" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="51" t="s">
+      <c r="G7" s="44" t="s">
         <v>9</v>
       </c>
       <c r="H7" s="9">
@@ -5343,7 +5322,7 @@
       <c r="J7" s="9">
         <v>200000</v>
       </c>
-      <c r="K7" s="51">
+      <c r="K7" s="44">
         <v>120</v>
       </c>
       <c r="L7" s="9">
@@ -5402,10 +5381,10 @@
       <c r="E8" s="20">
         <v>45017</v>
       </c>
-      <c r="F8" s="51" t="s">
+      <c r="F8" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="51" t="s">
+      <c r="G8" s="44" t="s">
         <v>9</v>
       </c>
       <c r="H8" s="9">
@@ -5417,7 +5396,7 @@
       <c r="J8" s="9">
         <v>30000</v>
       </c>
-      <c r="K8" s="51">
+      <c r="K8" s="44">
         <v>95</v>
       </c>
       <c r="L8" s="9">
@@ -5461,9 +5440,9 @@
       </c>
     </row>
     <row r="9" spans="1:24">
-      <c r="F9" s="52"/>
-      <c r="G9" s="52"/>
-      <c r="K9" s="52"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
+      <c r="K9" s="45"/>
     </row>
     <row r="13" spans="1:24">
       <c r="A13" s="13" t="s">

--- a/src/test/resources/TestDriver/TestIFRS9/IFRS9_Model_withoutCustomTable.xlsx
+++ b/src/test/resources/TestDriver/TestIFRS9/IFRS9_Model_withoutCustomTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arahmed\OneDrive - SS&amp;C Technologies, Inc\Desktop\Pers\IFRS9_Collateral\TestIFRS9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92B64042-8271-465D-B5E9-EDDB6F829521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDFAC6C2-B355-4B66-92C0-636E59AC6C05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="2" xr2:uid="{5E1CAB26-E67F-4F6B-9DAC-E456956C15F1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="4" xr2:uid="{5E1CAB26-E67F-4F6B-9DAC-E456956C15F1}"/>
   </bookViews>
   <sheets>
     <sheet name="xxJOB" sheetId="8" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="141">
   <si>
     <t>Name</t>
   </si>
@@ -99,18 +99,9 @@
     <t>Days Past Due</t>
   </si>
   <si>
-    <t>Days to Maturity</t>
-  </si>
-  <si>
-    <t>Months to Maturity</t>
-  </si>
-  <si>
     <t>Years to Maturity</t>
   </si>
   <si>
-    <t>Avg Discount Factor for Stage 2</t>
-  </si>
-  <si>
     <t>Risk Level Number at Origination</t>
   </si>
   <si>
@@ -126,12 +117,6 @@
     <t>IFRS 9 Stage</t>
   </si>
   <si>
-    <t>PD for Period</t>
-  </si>
-  <si>
-    <t>Loss Given Default</t>
-  </si>
-  <si>
     <t>Expected Credit Loss (ECL)</t>
   </si>
   <si>
@@ -261,15 +246,6 @@
     <t>AnnualPD</t>
   </si>
   <si>
-    <t>Stage 1</t>
-  </si>
-  <si>
-    <t>Stage 2</t>
-  </si>
-  <si>
-    <t>Stage 3</t>
-  </si>
-  <si>
     <t>ExecutionDate</t>
   </si>
   <si>
@@ -487,19 +463,23 @@
   </si>
   <si>
     <t>Cash-shortfall method (collateral only), discounted to reporting date using EIR</t>
+  </si>
+  <si>
+    <t>Alpha Ltd</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="6">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.0000_);[Red]\(&quot;$&quot;#,##0.0000\)"/>
     <numFmt numFmtId="167" formatCode="0.000000"/>
     <numFmt numFmtId="168" formatCode="0.000000000"/>
     <numFmt numFmtId="169" formatCode="0.0000000"/>
+    <numFmt numFmtId="170" formatCode="0.00000"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -584,7 +564,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -657,12 +637,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -745,6 +749,8 @@
     <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -766,6 +772,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1097,7 +1104,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="13" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -1116,7 +1123,7 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1140,65 +1147,66 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="15" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="E1" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="55" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="J1" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="K1" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="L1" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="M1" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="N1" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="J1" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>137</v>
+      <c r="O1" s="55" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="9"/>
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
       <c r="G2" s="20"/>
       <c r="H2" s="20"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
       <c r="K2" s="9"/>
       <c r="L2" s="9"/>
       <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
+      <c r="N2" s="44"/>
       <c r="O2" s="9"/>
     </row>
   </sheetData>
@@ -1214,7 +1222,7 @@
   </sheetPr>
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -1227,13 +1235,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1305,10 +1313,10 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="14" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F1" s="2"/>
     </row>
@@ -1337,8 +1345,8 @@
   </sheetPr>
   <dimension ref="A1:M102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1371,7 +1379,7 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="13" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B1" s="3">
         <f>LD!A2</f>
@@ -1380,7 +1388,7 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="13" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -1391,7 +1399,7 @@
         <v>10</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>11</v>
@@ -1412,19 +1420,19 @@
         <v>16</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="L5" s="4" t="s">
         <v>17</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -1483,18 +1491,18 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="13" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="4" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -1547,15 +1555,15 @@
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="14" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -1570,33 +1578,33 @@
     </row>
     <row r="18" spans="1:13" ht="15.75" thickBot="1"/>
     <row r="19" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A19" s="46" t="s">
-        <v>126</v>
-      </c>
-      <c r="B19" s="47"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="48"/>
+      <c r="A19" s="48" t="s">
+        <v>118</v>
+      </c>
+      <c r="B19" s="49"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="50"/>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="B20" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="D20" s="19" t="s">
-        <v>64</v>
-      </c>
       <c r="E20" s="19" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F20" s="19" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1617,7 +1625,7 @@
         <v/>
       </c>
       <c r="E21" s="21" t="str">
-        <f>IF(A6=0,"",B31)</f>
+        <f>IF(A6=0,"",ROUND(B31,4))</f>
         <v/>
       </c>
       <c r="F21" s="8" t="str">
@@ -1627,51 +1635,51 @@
     </row>
     <row r="22" spans="1:13" ht="15.75" thickBot="1"/>
     <row r="23" spans="1:13" ht="19.5" thickBot="1">
-      <c r="A23" s="49" t="s">
-        <v>132</v>
-      </c>
-      <c r="B23" s="50"/>
-      <c r="C23" s="50"/>
-      <c r="D23" s="50"/>
-      <c r="E23" s="50"/>
-      <c r="F23" s="50"/>
-      <c r="G23" s="50"/>
-      <c r="H23" s="50"/>
-      <c r="I23" s="50"/>
-      <c r="J23" s="50"/>
-      <c r="K23" s="50"/>
-      <c r="L23" s="50"/>
-      <c r="M23" s="51"/>
+      <c r="A23" s="51" t="s">
+        <v>124</v>
+      </c>
+      <c r="B23" s="52"/>
+      <c r="C23" s="52"/>
+      <c r="D23" s="52"/>
+      <c r="E23" s="52"/>
+      <c r="F23" s="52"/>
+      <c r="G23" s="52"/>
+      <c r="H23" s="52"/>
+      <c r="I23" s="52"/>
+      <c r="J23" s="52"/>
+      <c r="K23" s="52"/>
+      <c r="L23" s="52"/>
+      <c r="M23" s="53"/>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="22" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="E25" s="52" t="s">
-        <v>145</v>
-      </c>
-      <c r="F25" s="52"/>
-      <c r="G25" s="52"/>
+        <v>68</v>
+      </c>
+      <c r="E25" s="54" t="s">
+        <v>137</v>
+      </c>
+      <c r="F25" s="54"/>
+      <c r="G25" s="54"/>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="37" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B26" s="38">
         <f>SUM(K40:K51)</f>
         <v>0</v>
       </c>
       <c r="C26" s="37" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="F26" s="9">
         <f>J6-IFERROR($K$6*(1-$A$17-$B$17),0)</f>
@@ -1681,17 +1689,17 @@
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="37" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B27" s="38">
         <f>ROUND(SUM(K40:K102),4)</f>
         <v>0</v>
       </c>
       <c r="C27" s="37" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="F27" s="9">
         <f>ROUND(IF((F6-B1)&lt;0,0,F6-B1)/365,6)</f>
@@ -1701,17 +1709,17 @@
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="37" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="B28" s="38">
         <f>F29</f>
         <v>0</v>
       </c>
       <c r="C28" s="37" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="F28" s="9">
         <f>ROUND(1/(1+D6)^F27,6)</f>
@@ -1721,17 +1729,17 @@
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="37" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="B29" s="38">
         <f>IF(B1&gt;F6,0,IF($D$35="Stage 1",B26,IF($D$35="Stage 2",B27,B28)))</f>
         <v>0</v>
       </c>
       <c r="C29" s="37" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="F29" s="9">
         <f>F26*F28</f>
@@ -1741,45 +1749,45 @@
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="39" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B30" s="11">
         <f>M6</f>
         <v>0</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="39" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B31" s="11">
         <f>B29-B30</f>
         <v>0</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="13" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B34" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D34" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>26</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>1</v>
@@ -1809,42 +1817,42 @@
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="13" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="4" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="K39" s="4" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -4763,7 +4771,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4772,28 +4780,28 @@
     <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.5703125" customWidth="1"/>
     <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="19" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F1" s="19" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -4813,7 +4821,7 @@
         <f>Calculation!D21</f>
         <v/>
       </c>
-      <c r="E2" s="17" t="str">
+      <c r="E2" s="46" t="str">
         <f>Calculation!E21</f>
         <v/>
       </c>
@@ -4832,10 +4840,10 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:X21"/>
+  <dimension ref="A1:L37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+      <selection activeCell="L37" sqref="L37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4844,10 +4852,9 @@
     <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:12">
       <c r="A1" s="24" t="s">
         <v>10</v>
       </c>
@@ -4870,63 +4877,27 @@
         <v>16</v>
       </c>
       <c r="H1" s="24" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="I1" s="24" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J1" s="24" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="K1" s="24" t="s">
         <v>17</v>
       </c>
       <c r="L1" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="M1" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="N1" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="O1" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="P1" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q1" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="R1" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="S1" s="24" t="s">
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>25</v>
-      </c>
-      <c r="T1" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="U1" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="V1" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="W1" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="X1" s="24" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24">
-      <c r="A2" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>30</v>
       </c>
       <c r="C2" s="9">
         <v>4.4999999999999998E-2</v>
@@ -4955,52 +4926,14 @@
       <c r="K2" s="44">
         <v>0</v>
       </c>
-      <c r="L2" s="9">
-        <v>93</v>
-      </c>
-      <c r="M2" s="9">
-        <v>3</v>
-      </c>
-      <c r="N2" s="9">
-        <v>0.25479452054794521</v>
-      </c>
-      <c r="O2" s="9">
-        <v>0.99439999999999995</v>
-      </c>
-      <c r="P2" s="9">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="9">
-        <v>1</v>
-      </c>
-      <c r="R2" s="9">
-        <v>0</v>
-      </c>
-      <c r="S2" s="9">
-        <v>129999.99999999999</v>
-      </c>
-      <c r="T2" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="U2" s="9">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="V2" s="9">
-        <v>1.2763529584627342E-3</v>
-      </c>
-      <c r="W2" s="9">
-        <v>0.56666666666666665</v>
-      </c>
-      <c r="X2" s="9">
-        <v>216.9800029386648</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24">
+      <c r="L2" s="9"/>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="9" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C3" s="9">
         <v>0.06</v>
@@ -5029,52 +4962,14 @@
       <c r="K3" s="44">
         <v>25</v>
       </c>
-      <c r="L3" s="9">
-        <v>517</v>
-      </c>
-      <c r="M3" s="9">
-        <v>17</v>
-      </c>
-      <c r="N3" s="9">
-        <v>1.4164383561643836</v>
-      </c>
-      <c r="O3" s="9">
-        <v>0.96040000000000003</v>
-      </c>
-      <c r="P3" s="9">
-        <v>2</v>
-      </c>
-      <c r="Q3" s="9">
-        <v>2</v>
-      </c>
-      <c r="R3" s="9">
-        <v>0</v>
-      </c>
-      <c r="S3" s="9">
-        <v>194999.99999999997</v>
-      </c>
-      <c r="T3" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="U3" s="9">
-        <v>0.03</v>
-      </c>
-      <c r="V3" s="9">
-        <v>0.03</v>
-      </c>
-      <c r="W3" s="9">
-        <v>0.74</v>
-      </c>
-      <c r="X3" s="9">
-        <v>16650</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24">
+      <c r="L3" s="9"/>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C4" s="9">
         <v>5.2000000000000005E-2</v>
@@ -5103,52 +4998,14 @@
       <c r="K4" s="44">
         <v>40</v>
       </c>
-      <c r="L4" s="9">
-        <v>0</v>
-      </c>
-      <c r="M4" s="9">
-        <v>0</v>
-      </c>
-      <c r="N4" s="9">
-        <v>0</v>
-      </c>
-      <c r="O4" s="9">
-        <v>1</v>
-      </c>
-      <c r="P4" s="9">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="9">
-        <v>2</v>
-      </c>
-      <c r="R4" s="9">
-        <v>1</v>
-      </c>
-      <c r="S4" s="9">
-        <v>51999.999999999993</v>
-      </c>
-      <c r="T4" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="U4" s="9">
-        <v>0.03</v>
-      </c>
-      <c r="V4" s="9">
-        <v>0.03</v>
-      </c>
-      <c r="W4" s="9">
-        <v>0.48000000000000009</v>
-      </c>
-      <c r="X4" s="9">
-        <v>1440.0000000000002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24">
+      <c r="L4" s="9"/>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="9" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C5" s="9">
         <v>7.0000000000000007E-2</v>
@@ -5177,52 +5034,14 @@
       <c r="K5" s="44">
         <v>65</v>
       </c>
-      <c r="L5" s="9">
-        <v>0</v>
-      </c>
-      <c r="M5" s="9">
-        <v>0</v>
-      </c>
-      <c r="N5" s="9">
-        <v>0</v>
-      </c>
-      <c r="O5" s="9">
-        <v>1</v>
-      </c>
-      <c r="P5" s="9">
-        <v>2</v>
-      </c>
-      <c r="Q5" s="9">
-        <v>3</v>
-      </c>
-      <c r="R5" s="9">
-        <v>1</v>
-      </c>
-      <c r="S5" s="9">
-        <v>259999.99999999997</v>
-      </c>
-      <c r="T5" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="U5" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="V5" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="W5" s="9">
-        <v>0.74</v>
-      </c>
-      <c r="X5" s="9">
-        <v>74000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24">
+      <c r="L5" s="9"/>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="9" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C6" s="9">
         <v>0.04</v>
@@ -5251,52 +5070,14 @@
       <c r="K6" s="44">
         <v>0</v>
       </c>
-      <c r="L6" s="9">
-        <v>944</v>
-      </c>
-      <c r="M6" s="9">
-        <v>31</v>
-      </c>
-      <c r="N6" s="9">
-        <v>2.5863013698630137</v>
-      </c>
-      <c r="O6" s="9">
-        <v>0.95179999999999998</v>
-      </c>
-      <c r="P6" s="9">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="9">
-        <v>1</v>
-      </c>
-      <c r="R6" s="9">
-        <v>0</v>
-      </c>
-      <c r="S6" s="9">
-        <v>45499.999999999993</v>
-      </c>
-      <c r="T6" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="U6" s="9">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="V6" s="9">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="W6" s="9">
-        <v>0.66296296296296298</v>
-      </c>
-      <c r="X6" s="9">
-        <v>447.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24">
+      <c r="L6" s="9"/>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="9" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C7" s="9">
         <v>0.08</v>
@@ -5325,52 +5106,14 @@
       <c r="K7" s="44">
         <v>120</v>
       </c>
-      <c r="L7" s="9">
-        <v>0</v>
-      </c>
-      <c r="M7" s="9">
-        <v>0</v>
-      </c>
-      <c r="N7" s="9">
-        <v>0</v>
-      </c>
-      <c r="O7" s="9">
-        <v>1</v>
-      </c>
-      <c r="P7" s="9">
-        <v>3</v>
-      </c>
-      <c r="Q7" s="9">
-        <v>4</v>
-      </c>
-      <c r="R7" s="9">
-        <v>1</v>
-      </c>
-      <c r="S7" s="9">
-        <v>129999.99999999999</v>
-      </c>
-      <c r="T7" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="U7" s="9">
-        <v>1</v>
-      </c>
-      <c r="V7" s="9">
-        <v>1</v>
-      </c>
-      <c r="W7" s="9">
-        <v>0.78333333333333333</v>
-      </c>
-      <c r="X7" s="9">
-        <v>470000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24">
+      <c r="L7" s="9"/>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C8" s="9">
         <v>5.5E-2</v>
@@ -5399,66 +5142,28 @@
       <c r="K8" s="44">
         <v>95</v>
       </c>
-      <c r="L8" s="9">
-        <v>0</v>
-      </c>
-      <c r="M8" s="9">
-        <v>0</v>
-      </c>
-      <c r="N8" s="9">
-        <v>0</v>
-      </c>
-      <c r="O8" s="9">
-        <v>1</v>
-      </c>
-      <c r="P8" s="9">
-        <v>2</v>
-      </c>
-      <c r="Q8" s="9">
-        <v>4</v>
-      </c>
-      <c r="R8" s="9">
-        <v>2</v>
-      </c>
-      <c r="S8" s="9">
-        <v>19499.999999999996</v>
-      </c>
-      <c r="T8" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="U8" s="9">
-        <v>1</v>
-      </c>
-      <c r="V8" s="9">
-        <v>1</v>
-      </c>
-      <c r="W8" s="9">
-        <v>0.6100000000000001</v>
-      </c>
-      <c r="X8" s="9">
-        <v>30500.000000000004</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24">
+      <c r="L8" s="9"/>
+    </row>
+    <row r="9" spans="1:12">
       <c r="F9" s="45"/>
       <c r="G9" s="45"/>
       <c r="K9" s="45"/>
     </row>
-    <row r="13" spans="1:24">
+    <row r="13" spans="1:12">
       <c r="A13" s="13" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="3">
         <v>45930</v>
       </c>
@@ -5472,7 +5177,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:24">
+    <row r="15" spans="1:12">
       <c r="A15" s="3">
         <v>45930</v>
       </c>
@@ -5486,7 +5191,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="16" spans="1:24">
+    <row r="16" spans="1:12">
       <c r="A16" s="3">
         <v>45930</v>
       </c>
@@ -5500,7 +5205,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:12">
       <c r="A17" s="3">
         <v>45930</v>
       </c>
@@ -5514,18 +5219,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:12">
       <c r="A20" s="13" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="3">
         <v>45930</v>
       </c>
@@ -5534,6 +5239,334 @@
       </c>
       <c r="C21" s="16">
         <v>0.05</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="H23" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="I23" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="J23" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="K23" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="L23" s="24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="C24" s="9">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="D24" s="20">
+        <v>44197</v>
+      </c>
+      <c r="E24" s="20">
+        <v>46023</v>
+      </c>
+      <c r="F24" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="H24" s="9">
+        <v>500000</v>
+      </c>
+      <c r="I24" s="9">
+        <v>285000</v>
+      </c>
+      <c r="J24" s="9">
+        <v>200000</v>
+      </c>
+      <c r="K24" s="44">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>830.10309999999993</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="9">
+        <v>0.06</v>
+      </c>
+      <c r="D25" s="20">
+        <v>44621</v>
+      </c>
+      <c r="E25" s="20">
+        <v>46447</v>
+      </c>
+      <c r="F25" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="G25" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="H25" s="9">
+        <v>750000</v>
+      </c>
+      <c r="I25" s="9">
+        <v>735000</v>
+      </c>
+      <c r="J25" s="9">
+        <v>300000</v>
+      </c>
+      <c r="K25" s="44">
+        <v>25</v>
+      </c>
+      <c r="L25">
+        <v>16137.294699999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="9">
+        <v>5.2000000000000005E-2</v>
+      </c>
+      <c r="D26" s="20">
+        <v>43983</v>
+      </c>
+      <c r="E26" s="20">
+        <v>45809</v>
+      </c>
+      <c r="F26" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="G26" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="H26" s="9">
+        <v>250000</v>
+      </c>
+      <c r="I26" s="9">
+        <v>85000</v>
+      </c>
+      <c r="J26" s="9">
+        <v>80000</v>
+      </c>
+      <c r="K26" s="44">
+        <v>40</v>
+      </c>
+      <c r="L26">
+        <v>945.57389999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="9">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D27" s="20">
+        <v>43466</v>
+      </c>
+      <c r="E27" s="20">
+        <v>45292</v>
+      </c>
+      <c r="F27" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="G27" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="H27" s="9">
+        <v>2000000</v>
+      </c>
+      <c r="I27" s="9">
+        <v>985000</v>
+      </c>
+      <c r="J27" s="9">
+        <v>400000</v>
+      </c>
+      <c r="K27" s="44">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="9">
+        <v>0.04</v>
+      </c>
+      <c r="D28" s="20">
+        <v>45047</v>
+      </c>
+      <c r="E28" s="20">
+        <v>46874</v>
+      </c>
+      <c r="F28" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="G28" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="H28" s="9">
+        <v>150000</v>
+      </c>
+      <c r="I28" s="9">
+        <v>120000</v>
+      </c>
+      <c r="J28" s="9">
+        <v>70000</v>
+      </c>
+      <c r="K28" s="44">
+        <v>0</v>
+      </c>
+      <c r="L28" s="47">
+        <v>438.15229999999997</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" s="9">
+        <v>0.08</v>
+      </c>
+      <c r="D29" s="20">
+        <v>44075</v>
+      </c>
+      <c r="E29" s="20">
+        <v>45901</v>
+      </c>
+      <c r="F29" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="G29" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="H29" s="9">
+        <v>800000</v>
+      </c>
+      <c r="I29" s="9">
+        <v>585000</v>
+      </c>
+      <c r="J29" s="9">
+        <v>200000</v>
+      </c>
+      <c r="K29" s="44">
+        <v>120</v>
+      </c>
+      <c r="L29">
+        <v>437854.35000000003</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="9">
+        <v>5.5E-2</v>
+      </c>
+      <c r="D30" s="20">
+        <v>43191</v>
+      </c>
+      <c r="E30" s="20">
+        <v>45017</v>
+      </c>
+      <c r="F30" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="G30" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="H30" s="9">
+        <v>400000</v>
+      </c>
+      <c r="I30" s="9">
+        <v>35000</v>
+      </c>
+      <c r="J30" s="9">
+        <v>30000</v>
+      </c>
+      <c r="K30" s="44">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="L32">
+        <v>-73.232600000000005</v>
+      </c>
+    </row>
+    <row r="33" spans="12:12">
+      <c r="L33">
+        <v>-436.00540000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="12:12">
+      <c r="L34">
+        <v>-537.53749999999991</v>
+      </c>
+    </row>
+    <row r="35" spans="12:12">
+      <c r="L35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="12:12">
+      <c r="L36">
+        <v>-73.47320000000002</v>
+      </c>
+    </row>
+    <row r="37" spans="12:12">
+      <c r="L37">
+        <v>-5671.2349999999997</v>
       </c>
     </row>
   </sheetData>
@@ -5563,13 +5596,13 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -5577,16 +5610,16 @@
         <v>10</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="F2" s="24" t="s">
         <v>10</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -5597,13 +5630,13 @@
         <v>44197</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F3" s="24" t="s">
         <v>11</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -5614,7 +5647,7 @@
         <v>46023</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F4" s="24" t="s">
         <v>12</v>
@@ -5625,13 +5658,13 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="28" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="B5" s="29">
         <v>45930</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F5" s="24" t="s">
         <v>13</v>
@@ -5640,24 +5673,24 @@
         <v>44197</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="28" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="B6" s="28">
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F6" s="24" t="s">
         <v>14</v>
@@ -5666,25 +5699,25 @@
         <v>46023</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="K6" s="33">
         <f>ROUND($B$7 * (1 - (1 - $B$14) ^ 1) * F20,4)</f>
         <v>850.05</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="28" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B7" s="28">
         <v>300000</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F7" s="24" t="s">
         <v>15</v>
@@ -5693,25 +5726,25 @@
         <v>3</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="K7" s="33">
         <f>ROUND(SUM(I20:I43),4)</f>
         <v>425.59350000000001</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="28" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B8" s="28">
         <v>200000</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F8" s="24" t="s">
         <v>16</v>
@@ -5720,28 +5753,28 @@
         <v>3</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="K8" s="33">
         <f>IF(B18="Stage 1",K6, K7)</f>
         <v>850.05</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="28" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B9" s="28">
         <v>0.3</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F9" s="24" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G9" s="9">
         <v>500000</v>
@@ -5749,16 +5782,16 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="28" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="B10" s="28">
         <v>0.05</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F10" s="24" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G10" s="9">
         <v>300000</v>
@@ -5772,10 +5805,10 @@
         <v>0</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="F11" s="24" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G11" s="9">
         <v>200000</v>
@@ -5789,7 +5822,7 @@
         <v>3</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F12" s="24" t="s">
         <v>17</v>
@@ -5800,63 +5833,63 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="28" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="B13" s="28" t="s">
         <v>3</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="28" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="B14" s="28">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="30">
       <c r="A15" s="27" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="B15" s="30">
         <f>IF(B12="Low",1,IF(B12="Medium",2,IF(B12="High",3,4)))</f>
         <v>1</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="30">
       <c r="A16" s="27" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B16" s="30">
         <f>IF(B13="Low",1,IF(B13="Medium",2,IF(B13="High",3,4)))</f>
         <v>1</v>
       </c>
       <c r="C16" s="27" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="27" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="B17" s="30">
         <f>B16 - B15</f>
         <v>0</v>
       </c>
       <c r="C17" s="27" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="D17" s="26"/>
       <c r="E17" s="26"/>
@@ -5864,46 +5897,46 @@
     </row>
     <row r="18" spans="1:9" ht="30">
       <c r="A18" s="27" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B18" s="30" t="str">
         <f>IF(AND(B11&lt;31,B17&lt;2),"Stage 1",IF(AND(B11&lt;91,B17&lt;3),"Stage 2","Stage 3"))</f>
         <v>Stage 1</v>
       </c>
       <c r="C18" s="27" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="60">
       <c r="A19" s="31" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="B19" s="31" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C19" s="31" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D19" s="27" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="F19" s="31" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="G19" s="31" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="H19" s="31" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="I19" s="31" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:9">
